--- a/Journeaux de travaille/Exemple.xlsx
+++ b/Journeaux de travaille/Exemple.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro.PINTO\Documents\GitHub\ProjetWeb_Annonces\Journeaux de travaille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.cuany\Documents\GitHub\ProjetWeb_Annonces\Journeaux de travaille\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Journal de travaille (NOM.PRENOM)</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -44,7 +41,10 @@
     <t>Projet</t>
   </si>
   <si>
-    <t>Déscription</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Journal de travaille Prénom.Nom</t>
   </si>
 </sst>
 </file>
@@ -182,9 +182,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -242,6 +241,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,13 +445,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -478,6 +476,13 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -523,15 +528,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="B3:G28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="B3:G28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="B4:G29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B4:G29"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
     <tableColumn id="2" name="Heure début" dataDxfId="4"/>
     <tableColumn id="3" name="Heure fin" dataDxfId="3"/>
     <tableColumn id="4" name="Temps" dataDxfId="2"/>
     <tableColumn id="5" name="Projet" dataDxfId="1"/>
-    <tableColumn id="6" name="Déscription" dataDxfId="0"/>
+    <tableColumn id="6" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -800,249 +805,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="20"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="20"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
